--- a/fuentes/contenidos/grado07/guion08/SolicitudGrafica_LE_07_08_REC210.xlsx
+++ b/fuentes/contenidos/grado07/guion08/SolicitudGrafica_LE_07_08_REC210.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,8 +845,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1287,6 +1293,21 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1588,10 +1609,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1689,6 +1706,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2450,7 +2470,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2496,14 +2516,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2527,12 +2547,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="87">
         <v>7</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2556,10 +2576,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2588,10 +2608,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2675,12 +2695,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2736,13 +2756,13 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="15">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="78">
-        <v>377926627</v>
+      <c r="B10" s="109">
+        <v>120984946</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2770,7 +2790,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="109" t="s">
         <v>191</v>
       </c>
       <c r="K10" s="64"/>
@@ -2784,8 +2804,8 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="78">
-        <v>377926627</v>
+      <c r="B11" s="109">
+        <v>120984946</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2813,7 +2833,7 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="109" t="s">
         <v>192</v>
       </c>
       <c r="K11" s="65"/>
@@ -5986,7 +6006,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6016,25 +6035,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6042,11 +6061,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6097,11 +6116,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6146,12 +6165,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6245,14 +6264,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6285,12 +6304,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6330,12 +6349,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6351,12 +6370,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6759,40 +6778,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="108"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
